--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -477,10 +477,7 @@
     <t>（book_detail）</t>
   </si>
   <si>
-    <t>book_detail_id</t>
-  </si>
-  <si>
-    <t>（书表的详细信息id，查询用）</t>
+    <t>（书表的id，查询用）</t>
   </si>
   <si>
     <t>channel_id</t>
@@ -570,7 +567,7 @@
     <t>book_content</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>xxx内容</t>
   </si>
   <si>
     <t>is_vip</t>
@@ -590,9 +587,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -649,6 +646,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -658,17 +669,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,46 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,8 +704,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +714,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,14 +777,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -780,14 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,49 +811,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,115 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,30 +1015,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1052,15 +1025,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,6 +1040,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,6 +1093,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1113,10 +1110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,133 +1122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,7 +1364,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1650,7 +1647,7 @@
   </sheetPr>
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50:F52"/>
     </sheetView>
   </sheetViews>
@@ -2201,8 +2198,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2480,7 +2477,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2510,72 +2507,72 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
         <v>153</v>
-      </c>
-      <c r="C9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2661,13 +2658,13 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2686,7 +2683,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
@@ -2700,16 +2697,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
       </c>
       <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
         <v>160</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2720,7 +2717,7 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>109</v>
@@ -2742,7 +2739,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -2788,7 +2785,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2803,10 +2800,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2822,7 +2819,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
@@ -2833,13 +2830,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2850,40 +2847,40 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
         <v>175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:6">

--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="书的详情表" sheetId="3" r:id="rId3"/>
     <sheet name="卷表" sheetId="4" r:id="rId4"/>
     <sheet name="章节表" sheetId="5" r:id="rId5"/>
+    <sheet name="用户表" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">用户表!$A$1:$X$46</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -363,6 +367,15 @@
     <t>章节名</t>
   </si>
   <si>
+    <t>登录注册</t>
+  </si>
+  <si>
+    <t>书记详细页面+首页</t>
+  </si>
+  <si>
+    <t>编辑管理</t>
+  </si>
+  <si>
     <t>（book）</t>
   </si>
   <si>
@@ -580,6 +593,18 @@
   </si>
   <si>
     <t>好，很好，非常好</t>
+  </si>
+  <si>
+    <t>作者表：</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>（作者id，查询用）</t>
+  </si>
+  <si>
+    <t>用户id ，必备</t>
   </si>
 </sst>
 </file>
@@ -587,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -647,6 +672,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -660,30 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,34 +722,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,23 +738,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,10 +753,49 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,8 +807,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,114 +836,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -931,67 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1027,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1025,45 +1074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,8 +1107,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,10 +1135,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,133 +1147,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1645,10 +1670,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F52"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2182,6 +2207,27 @@
         <v>60</v>
       </c>
       <c r="F52" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <f>-A20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2198,8 +2244,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2215,21 +2261,21 @@
         <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2237,13 +2283,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2251,13 +2297,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2265,121 +2311,121 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
         <v>128</v>
-      </c>
-      <c r="D9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2391,10 +2437,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>93</v>
@@ -2405,10 +2451,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2476,7 +2522,7 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2488,91 +2534,91 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2658,24 +2704,24 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2683,13 +2729,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2697,27 +2743,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2725,10 +2771,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>99</v>
@@ -2739,10 +2785,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -2785,7 +2831,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2800,87 +2846,87 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2919,4 +2965,64 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait"/>
+  <headerFooter/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="24" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="7" max="45" man="1"/>
+    <brk id="16" max="45" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="卷表" sheetId="4" r:id="rId4"/>
     <sheet name="章节表" sheetId="5" r:id="rId5"/>
     <sheet name="用户表" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">用户表!$A$1:$X$46</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -606,14 +607,44 @@
   <si>
     <t>用户id ，必备</t>
   </si>
+  <si>
+    <t>author_name</t>
+  </si>
+  <si>
+    <t>作者笔名</t>
+  </si>
+  <si>
+    <t>类型配置表</t>
+  </si>
+  <si>
+    <t>（string）</t>
+  </si>
+  <si>
+    <t>string_id</t>
+  </si>
+  <si>
+    <t>类型id</t>
+  </si>
+  <si>
+    <t>string_name</t>
+  </si>
+  <si>
+    <t>类型name</t>
+  </si>
+  <si>
+    <t>string_des</t>
+  </si>
+  <si>
+    <t>类型描述</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -680,9 +711,48 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -695,6 +765,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,24 +824,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,72 +839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,19 +867,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,19 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +1023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,109 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,6 +1058,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1053,80 +1158,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1135,145 +1166,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2970,13 +3001,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -3011,6 +3046,17 @@
       </c>
       <c r="C6" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3025,4 +3071,61 @@
     <brk id="16" max="45" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -644,9 +644,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -703,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,47 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,11 +747,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,14 +794,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -831,20 +845,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -867,6 +867,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -879,13 +945,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,19 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,133 +1023,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,6 +1058,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1080,37 +1134,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,30 +1153,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1166,10 +1166,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,133 +1178,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2553,8 +2553,8 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2593,7 +2593,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2603,8 +2603,11 @@
       <c r="C4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -2613,6 +2616,9 @@
       </c>
       <c r="C5" t="s">
         <v>148</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2622,7 +2628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -2631,6 +2637,9 @@
       </c>
       <c r="C7" t="s">
         <v>152</v>
+      </c>
+      <c r="D7">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3078,7 +3087,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -485,6 +485,15 @@
     <t>备注描述</t>
   </si>
   <si>
+    <t>最新章节</t>
+  </si>
+  <si>
+    <t>最新章节id</t>
+  </si>
+  <si>
+    <t>最新章节更新时间</t>
+  </si>
+  <si>
     <t>书的详细信息表</t>
   </si>
   <si>
@@ -644,8 +653,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -703,7 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +720,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,8 +741,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,33 +795,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,14 +820,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,23 +835,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,9 +848,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,31 +876,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,43 +1002,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,102 +1057,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,60 +1067,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1134,7 +1089,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,6 +1138,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1166,10 +1175,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,7 +1187,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,124 +1196,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,6 +1321,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1319,9 +1331,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1861,10 +1870,10 @@
       <c r="J11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M11" t="s">
@@ -1876,16 +1885,16 @@
       <c r="O11" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="T11" t="s">
@@ -1902,7 +1911,7 @@
       <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K12" t="s">
@@ -1914,7 +1923,7 @@
       <c r="N12" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="S12" s="5" t="s">
@@ -2082,7 +2091,7 @@
       <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F36" t="s">
@@ -2091,25 +2100,25 @@
       <c r="G36" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L36" t="s">
         <v>44</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2129,7 +2138,7 @@
       <c r="M37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
@@ -2146,7 +2155,7 @@
       <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F41" t="s">
@@ -2155,10 +2164,10 @@
       <c r="G41" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2175,10 +2184,10 @@
       <c r="G42" t="s">
         <v>50</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N42" t="s">
@@ -2211,7 +2220,7 @@
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
@@ -2229,7 +2238,7 @@
       <c r="E51" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2237,7 +2246,7 @@
       <c r="E52" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
@@ -2275,8 +2284,8 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2364,7 +2373,7 @@
       <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2425,9 +2434,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2460,9 +2469,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2476,7 +2485,7 @@
       <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>43061</v>
       </c>
     </row>
@@ -2488,11 +2497,26 @@
         <v>141</v>
       </c>
     </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F20" t="s">
@@ -2501,25 +2525,25 @@
       <c r="G20" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2539,7 +2563,7 @@
       <c r="M21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,7 +2577,7 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2565,10 +2589,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2590,18 +2614,18 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2609,34 +2633,34 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>201</v>
@@ -2644,21 +2668,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2676,7 +2700,7 @@
       <c r="C20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G20" t="s">
@@ -2685,10 +2709,10 @@
       <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2705,10 +2729,10 @@
       <c r="H21" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O21" t="s">
@@ -2744,13 +2768,13 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2769,7 +2793,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2783,16 +2807,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2803,7 +2827,7 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2811,7 +2835,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -2825,7 +2849,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
@@ -2871,7 +2895,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2879,6 +2903,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2886,10 +2911,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2905,7 +2930,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2916,13 +2941,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2933,47 +2958,61 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43061</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -2991,7 +3030,7 @@
       <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2999,7 +3038,7 @@
       <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3024,7 +3063,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3040,10 +3079,10 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3051,21 +3090,21 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
         <v>183</v>
       </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3098,10 +3137,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3111,26 +3150,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="18855" windowHeight="7260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -485,10 +485,25 @@
     <t>备注描述</t>
   </si>
   <si>
+    <t>latest_chapter</t>
+  </si>
+  <si>
+    <t>varchar255</t>
+  </si>
+  <si>
     <t>最新章节</t>
   </si>
   <si>
+    <t>latest_chapter_id</t>
+  </si>
+  <si>
     <t>最新章节id</t>
+  </si>
+  <si>
+    <t>latest_chapter_time</t>
+  </si>
+  <si>
+    <t>detetime</t>
   </si>
   <si>
     <t>最新章节更新时间</t>
@@ -652,9 +667,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -718,29 +733,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -795,6 +787,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,14 +856,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,20 +869,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -876,7 +891,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,37 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,55 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +1053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,54 +1072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,30 +1082,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1109,6 +1100,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1120,6 +1120,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,21 +1174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1175,10 +1190,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,133 +1202,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2285,7 +2300,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2497,19 +2512,37 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
       <c r="C17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
       <c r="C18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2589,10 +2622,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2614,18 +2647,18 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -2633,13 +2666,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>101</v>
@@ -2649,18 +2682,18 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D7">
         <v>201</v>
@@ -2668,21 +2701,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2768,13 +2801,13 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2793,7 +2826,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2807,16 +2840,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2827,7 +2860,7 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2835,7 +2868,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
@@ -2849,7 +2882,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>112</v>
@@ -2911,10 +2944,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2930,7 +2963,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2941,13 +2974,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2958,40 +2991,40 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3063,7 +3096,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3079,10 +3112,10 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3090,21 +3123,21 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3137,10 +3170,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3150,26 +3183,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/docs/网站数据表设计22.xlsx
+++ b/docs/网站数据表设计22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="7260" activeTab="1"/>
+    <workbookView windowWidth="18855" windowHeight="7260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>user（用户表）</t>
   </si>
@@ -530,10 +530,13 @@
     <t>(书的类别id，此处应该考虑一下，类别表是否叫book_type)</t>
   </si>
   <si>
+    <t>101 都市</t>
+  </si>
+  <si>
     <t>标签</t>
   </si>
   <si>
-    <t>sell_status</t>
+    <t>sell_status_id</t>
   </si>
   <si>
     <t>int(4)</t>
@@ -542,12 +545,36 @@
     <t>销售状态（1、vip，2、普通）</t>
   </si>
   <si>
-    <t>sign</t>
+    <t>201vip 202普通</t>
+  </si>
+  <si>
+    <t>update_status_id</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>更新状态</t>
+  </si>
+  <si>
+    <t>21 连载中</t>
+  </si>
+  <si>
+    <t>editorial_type_id</t>
+  </si>
+  <si>
+    <t>（编辑分组的id，查询用）</t>
+  </si>
+  <si>
+    <t>sign_id</t>
   </si>
   <si>
     <t>签约状态（1、已经签约，2、未签约）</t>
   </si>
   <si>
+    <t>31未签约 32已签约</t>
+  </si>
+  <si>
     <t>book_detail_des</t>
   </si>
   <si>
@@ -566,24 +593,24 @@
     <t>volume_id</t>
   </si>
   <si>
+    <t>volume_nametitle</t>
+  </si>
+  <si>
+    <t>卷序号（第一卷...）</t>
+  </si>
+  <si>
     <t>volume_name</t>
   </si>
   <si>
     <t>(卷名)</t>
   </si>
   <si>
-    <t>第一卷</t>
+    <t>xxx</t>
   </si>
   <si>
     <t>(书的id)</t>
   </si>
   <si>
-    <t>begin_chapter</t>
-  </si>
-  <si>
-    <t>end_chapter</t>
-  </si>
-  <si>
     <t>(chapter)</t>
   </si>
   <si>
@@ -606,6 +633,12 @@
   </si>
   <si>
     <t>xxx内容</t>
+  </si>
+  <si>
+    <t>valume_id</t>
+  </si>
+  <si>
+    <t>所属卷id</t>
   </si>
   <si>
     <t>is_vip</t>
@@ -667,10 +700,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -726,6 +759,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -764,50 +805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -831,6 +828,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,24 +896,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,7 +930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +948,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,61 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,90 +1105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,16 +1118,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1105,21 +1138,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,17 +1157,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,15 +1215,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1190,10 +1223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,133 +1235,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2299,7 +2332,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2611,7 +2644,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2674,48 +2707,79 @@
       <c r="C5" t="s">
         <v>156</v>
       </c>
-      <c r="D5">
-        <v>101</v>
+      <c r="D5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="D7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2782,10 +2846,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2801,13 +2865,13 @@
         <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2826,7 +2890,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2838,81 +2902,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2925,10 +2969,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2944,10 +2988,10 @@
         <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2963,7 +3007,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -2974,13 +3018,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2991,87 +3035,95 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>139</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>43061</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>95</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
-      <c r="E19" t="s">
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3096,7 +3148,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3112,10 +3164,10 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3123,21 +3175,21 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3170,10 +3222,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3183,26 +3235,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
